--- a/mbs-perturbation/chain/svm/smote/chain-svm-linear-results.xlsx
+++ b/mbs-perturbation/chain/svm/smote/chain-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7578947368421053</v>
+        <v>0.7753623188405797</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9391304347826087</v>
+        <v>0.9304347826086956</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8388349514563107</v>
+        <v>0.8458498023715416</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8424054206662902</v>
+        <v>0.9361001317523057</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.7395833333333334</v>
+        <v>0.8617886178861789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9220779220779221</v>
+        <v>0.9177489177489178</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8208092485549133</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8521174477696217</v>
+        <v>0.933785055524186</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7956204379562044</v>
+        <v>0.8907563025210085</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9478260869565217</v>
+        <v>0.9217391304347826</v>
       </c>
       <c r="D4" t="n">
-        <v>0.865079365079365</v>
+        <v>0.905982905982906</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9398960302457466</v>
+        <v>0.9129867674858223</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7233333333333334</v>
+        <v>0.791970802919708</v>
       </c>
       <c r="C5" t="n">
         <v>0.9434782608695652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.818867924528302</v>
+        <v>0.861111111111111</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8729300567107749</v>
+        <v>0.8877126654064272</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9541284403669725</v>
+        <v>0.990521327014218</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9043478260869565</v>
+        <v>0.908695652173913</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9285714285714285</v>
+        <v>0.9478458049886621</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9855954631379962</v>
+        <v>0.9921739130434784</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7941120563663898</v>
+        <v>0.8620798738363386</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9313721061547149</v>
+        <v>0.9244193487671749</v>
       </c>
       <c r="D7" t="n">
-        <v>0.854432583638064</v>
+        <v>0.889935702668622</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8985888837060859</v>
+        <v>0.9325517066424439</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/svm/smote/chain-svm-linear-results.xlsx
+++ b/mbs-perturbation/chain/svm/smote/chain-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7753623188405797</v>
+        <v>0.5849673202614379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9304347826086956</v>
+        <v>0.9040404040404041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8458498023715416</v>
+        <v>0.7103174603174603</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9361001317523057</v>
+        <v>0.7793720028568513</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8617886178861789</v>
+        <v>0.8786407766990292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9177489177489178</v>
+        <v>0.9141414141414141</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.8960396039603961</v>
       </c>
       <c r="E3" t="n">
-        <v>0.933785055524186</v>
+        <v>0.9532700744821956</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8907563025210085</v>
+        <v>0.921875</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9217391304347826</v>
+        <v>0.8939393939393939</v>
       </c>
       <c r="D4" t="n">
-        <v>0.905982905982906</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9129867674858223</v>
+        <v>0.958932761963065</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.791970802919708</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9434782608695652</v>
+        <v>0.9292929292929293</v>
       </c>
       <c r="D5" t="n">
-        <v>0.861111111111111</v>
+        <v>0.9633507853403142</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8877126654064272</v>
+        <v>0.9873352817515254</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.990521327014218</v>
+        <v>0.9893617021276596</v>
       </c>
       <c r="C6" t="n">
-        <v>0.908695652173913</v>
+        <v>0.9441624365482234</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9478458049886621</v>
+        <v>0.9662337662337663</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9921739130434784</v>
+        <v>0.9950007691124443</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8620798738363386</v>
+        <v>0.8749689598176253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9244193487671749</v>
+        <v>0.9171153155924732</v>
       </c>
       <c r="D7" t="n">
-        <v>0.889935702668622</v>
+        <v>0.8887267847088489</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9325517066424439</v>
+        <v>0.9347821780332163</v>
       </c>
     </row>
   </sheetData>
